--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>33.52774610264667</v>
+        <v>23.04577021619912</v>
       </c>
       <c r="R2">
-        <v>301.74971492382</v>
+        <v>207.411931945792</v>
       </c>
       <c r="S2">
-        <v>0.0002948565769622844</v>
+        <v>0.0004823185816022007</v>
       </c>
       <c r="T2">
-        <v>0.000349484967523242</v>
+        <v>0.0005489147659350035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>285.999896462424</v>
+        <v>302.0762178353841</v>
       </c>
       <c r="R3">
-        <v>2573.999068161816</v>
+        <v>2718.685960518456</v>
       </c>
       <c r="S3">
-        <v>0.002515198910905056</v>
+        <v>0.006322070017851167</v>
       </c>
       <c r="T3">
-        <v>0.002981192479232316</v>
+        <v>0.007194990440852722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>343.701980700666</v>
+        <v>293.9672773473138</v>
       </c>
       <c r="R4">
-        <v>3093.317826305994</v>
+        <v>2645.705496125824</v>
       </c>
       <c r="S4">
-        <v>0.003022654407316559</v>
+        <v>0.006152360234328568</v>
       </c>
       <c r="T4">
-        <v>0.0035826647933654</v>
+        <v>0.007001847962721909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>718.402082224086</v>
+        <v>321.1417750654271</v>
       </c>
       <c r="R5">
-        <v>4310.412493344516</v>
+        <v>1926.850650392562</v>
       </c>
       <c r="S5">
-        <v>0.006317918842461355</v>
+        <v>0.006721087817403216</v>
       </c>
       <c r="T5">
-        <v>0.004992297575587099</v>
+        <v>0.005099401774187084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>346.9300635364133</v>
+        <v>451.2272410941634</v>
       </c>
       <c r="R6">
-        <v>3122.37057182772</v>
+        <v>4061.04516984747</v>
       </c>
       <c r="S6">
-        <v>0.003051043475051237</v>
+        <v>0.009443610730433864</v>
       </c>
       <c r="T6">
-        <v>0.003616313533771616</v>
+        <v>0.01074753818618739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>329.3648556062701</v>
+        <v>214.3450535392321</v>
       </c>
       <c r="R7">
-        <v>2964.28370045643</v>
+        <v>1929.105481853088</v>
       </c>
       <c r="S7">
-        <v>0.002896567923129065</v>
+        <v>0.004485968627935961</v>
       </c>
       <c r="T7">
-        <v>0.003433218132601164</v>
+        <v>0.005105369175733208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>2809.562990406877</v>
@@ -948,10 +948,10 @@
         <v>25286.06691366189</v>
       </c>
       <c r="S8">
-        <v>0.02470843472672015</v>
+        <v>0.05880057050566984</v>
       </c>
       <c r="T8">
-        <v>0.02928619261941199</v>
+        <v>0.06691946490791631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>3376.40809192741</v>
+        <v>2734.143021069504</v>
       </c>
       <c r="R9">
-        <v>30387.67282734668</v>
+        <v>24607.28718962553</v>
       </c>
       <c r="S9">
-        <v>0.02969350010482468</v>
+        <v>0.0572221267264416</v>
       </c>
       <c r="T9">
-        <v>0.03519484634427344</v>
+        <v>0.06512307735274799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>7057.33088512924</v>
+        <v>2986.888714255166</v>
       </c>
       <c r="R10">
-        <v>42343.98531077544</v>
+        <v>17921.332285531</v>
       </c>
       <c r="S10">
-        <v>0.06206502581201399</v>
+        <v>0.06251177177192095</v>
       </c>
       <c r="T10">
-        <v>0.04904258595530755</v>
+        <v>0.04742872709621491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>3408.11964909042</v>
+        <v>4196.793001203496</v>
       </c>
       <c r="R11">
-        <v>30673.07684181378</v>
+        <v>37771.13701083146</v>
       </c>
       <c r="S11">
-        <v>0.02997238438074954</v>
+        <v>0.08783352557232769</v>
       </c>
       <c r="T11">
-        <v>0.03552539980561546</v>
+        <v>0.09996114802507211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>379.3921454746589</v>
+        <v>268.5920729539911</v>
       </c>
       <c r="R12">
-        <v>3414.52930927193</v>
+        <v>2417.32865658592</v>
       </c>
       <c r="S12">
-        <v>0.003336528169789626</v>
+        <v>0.005621289566000442</v>
       </c>
       <c r="T12">
-        <v>0.003954690280517172</v>
+        <v>0.006397449661018682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>3236.308041471476</v>
+        <v>3520.614706184841</v>
       </c>
       <c r="R13">
-        <v>29126.77237324329</v>
+        <v>31685.53235566356</v>
       </c>
       <c r="S13">
-        <v>0.02846140352477993</v>
+        <v>0.07368197615115236</v>
       </c>
       <c r="T13">
-        <v>0.03373447792482483</v>
+        <v>0.08385562206267233</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>3889.251352080059</v>
+        <v>3426.107249297137</v>
       </c>
       <c r="R14">
-        <v>35003.26216872053</v>
+        <v>30834.96524367424</v>
       </c>
       <c r="S14">
-        <v>0.03420365142080747</v>
+        <v>0.07170405559873501</v>
       </c>
       <c r="T14">
-        <v>0.04054059817531627</v>
+        <v>0.08160459994061016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>8129.27020068739</v>
+        <v>3742.818498481645</v>
       </c>
       <c r="R15">
-        <v>48775.62120412434</v>
+        <v>22456.91099088987</v>
       </c>
       <c r="S15">
-        <v>0.07149209425643351</v>
+        <v>0.07833241815946033</v>
       </c>
       <c r="T15">
-        <v>0.0564916735604966</v>
+        <v>0.0594321161976796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>3925.779583625198</v>
+        <v>5258.928598255383</v>
       </c>
       <c r="R16">
-        <v>35332.01625262678</v>
+        <v>47330.35738429845</v>
       </c>
       <c r="S16">
-        <v>0.034524895481858</v>
+        <v>0.1100626691346106</v>
       </c>
       <c r="T16">
-        <v>0.04092135946407544</v>
+        <v>0.1252595827129768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>136.527216950715</v>
+        <v>114.173952586176</v>
       </c>
       <c r="R17">
-        <v>819.1633017042899</v>
+        <v>685.0437155170559</v>
       </c>
       <c r="S17">
-        <v>0.001200675635309026</v>
+        <v>0.002389515227769359</v>
       </c>
       <c r="T17">
-        <v>0.0009487507219837185</v>
+        <v>0.001812965181080166</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>1164.610641963942</v>
+        <v>1496.553833913768</v>
       </c>
       <c r="R18">
-        <v>6987.663851783652</v>
+        <v>8979.323003482608</v>
       </c>
       <c r="S18">
-        <v>0.01024205761795092</v>
+        <v>0.03132096326974797</v>
       </c>
       <c r="T18">
-        <v>0.008093076326254268</v>
+        <v>0.02376373884796383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>1399.57737516409</v>
+        <v>1456.380310611072</v>
       </c>
       <c r="R19">
-        <v>8397.464250984543</v>
+        <v>8738.281863666431</v>
       </c>
       <c r="S19">
-        <v>0.0123084502242209</v>
+        <v>0.03048018265814144</v>
       </c>
       <c r="T19">
-        <v>0.009725899896123638</v>
+        <v>0.0231258245312625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>2925.381164524826</v>
+        <v>1591.008912081729</v>
       </c>
       <c r="R20">
-        <v>11701.5246580993</v>
+        <v>6364.035648326916</v>
       </c>
       <c r="S20">
-        <v>0.02572698665281412</v>
+        <v>0.03329778760235687</v>
       </c>
       <c r="T20">
-        <v>0.01355264566245138</v>
+        <v>0.01684239236157532</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>1412.72234364189</v>
+        <v>2235.48170215041</v>
       </c>
       <c r="R21">
-        <v>8476.334061851339</v>
+        <v>13412.89021290246</v>
       </c>
       <c r="S21">
-        <v>0.01242405240033422</v>
+        <v>0.04678578123724286</v>
       </c>
       <c r="T21">
-        <v>0.009817246505336859</v>
+        <v>0.03549715497395532</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>1326.718166599891</v>
+        <v>171.2107607753636</v>
       </c>
       <c r="R22">
-        <v>11940.46349939902</v>
+        <v>1540.896846978272</v>
       </c>
       <c r="S22">
-        <v>0.01166769683830435</v>
+        <v>0.003583222887216068</v>
       </c>
       <c r="T22">
-        <v>0.01382938339926334</v>
+        <v>0.004077976730432857</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>11317.23132001507</v>
+        <v>2244.173164209844</v>
       </c>
       <c r="R23">
-        <v>101855.0818801356</v>
+        <v>20197.5584778886</v>
       </c>
       <c r="S23">
-        <v>0.09952831536882163</v>
+        <v>0.04696768245439589</v>
       </c>
       <c r="T23">
-        <v>0.1179680318569419</v>
+        <v>0.05345274970605998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>13600.54625491043</v>
+        <v>2183.930531526265</v>
       </c>
       <c r="R24">
-        <v>122404.9162941938</v>
+        <v>19655.37478373638</v>
       </c>
       <c r="S24">
-        <v>0.1196087115806315</v>
+        <v>0.04570688097649594</v>
       </c>
       <c r="T24">
-        <v>0.1417687443600781</v>
+        <v>0.05201786294338752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>28427.71149876505</v>
+        <v>2385.814277843244</v>
       </c>
       <c r="R25">
-        <v>170566.2689925903</v>
+        <v>14314.88566705947</v>
       </c>
       <c r="S25">
-        <v>0.2500048072940864</v>
+        <v>0.04993205033550049</v>
       </c>
       <c r="T25">
-        <v>0.1975489752972435</v>
+        <v>0.03788428197744147</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>13728.2839241341</v>
+        <v>3352.240281212071</v>
       </c>
       <c r="R26">
-        <v>123554.5553172069</v>
+        <v>30170.16253090864</v>
       </c>
       <c r="S26">
-        <v>0.1207320883737246</v>
+        <v>0.07015811415525913</v>
       </c>
       <c r="T26">
-        <v>0.143100250362404</v>
+        <v>0.07984520248431502</v>
       </c>
     </row>
   </sheetData>
